--- a/src/main/resources/Joom Application All SCenarios.xlsx
+++ b/src/main/resources/Joom Application All SCenarios.xlsx
@@ -99,9 +99,6 @@
     <t>The shopping home page should be displayed.</t>
   </si>
   <si>
-    <t>click on "login" button</t>
-  </si>
-  <si>
     <t>Enter email address and password, then click on the "Login" button</t>
   </si>
   <si>
@@ -481,6 +478,9 @@
   </si>
   <si>
     <t>Admin should be able to view and verify today's placed orders</t>
+  </si>
+  <si>
+    <t>click on "login" link</t>
   </si>
 </sst>
 </file>
@@ -874,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,7 +894,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
@@ -914,25 +914,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1"/>
     </row>
@@ -942,19 +942,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -962,13 +962,13 @@
         <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
         <v>4</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
@@ -1001,7 +1001,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1009,7 +1009,7 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1017,7 +1017,7 @@
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1025,7 +1025,7 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1033,30 +1033,30 @@
         <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1"/>
     </row>
@@ -1066,40 +1066,40 @@
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
         <v>34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
         <v>3</v>
@@ -1107,18 +1107,18 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
         <v>37</v>
-      </c>
-      <c r="G27" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
         <v>39</v>
-      </c>
-      <c r="F28" t="s">
-        <v>40</v>
       </c>
       <c r="G28" t="s">
         <v>6</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
         <v>6</v>
@@ -1134,18 +1134,18 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" t="s">
         <v>42</v>
-      </c>
-      <c r="G30" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" t="s">
         <v>44</v>
-      </c>
-      <c r="G31" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1159,22 +1159,22 @@
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1182,29 +1182,29 @@
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
         <v>50</v>
-      </c>
-      <c r="D42" t="s">
-        <v>51</v>
       </c>
       <c r="E42" t="s">
         <v>1</v>
@@ -1213,61 +1213,61 @@
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" t="s">
         <v>53</v>
-      </c>
-      <c r="G43" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" t="s">
         <v>55</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>56</v>
-      </c>
-      <c r="G44" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" t="s">
         <v>58</v>
-      </c>
-      <c r="G45" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" t="s">
         <v>60</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>61</v>
-      </c>
-      <c r="G46" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" t="s">
         <v>63</v>
-      </c>
-      <c r="G47" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" t="s">
         <v>65</v>
-      </c>
-      <c r="G48" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1277,17 +1277,17 @@
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1295,12 +1295,12 @@
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1308,13 +1308,13 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" t="s">
         <v>77</v>
-      </c>
-      <c r="D56" t="s">
-        <v>78</v>
       </c>
       <c r="E56" t="s">
         <v>1</v>
@@ -1323,58 +1323,58 @@
         <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E58" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" t="s">
         <v>80</v>
       </c>
-      <c r="F58" t="s">
-        <v>81</v>
-      </c>
       <c r="G58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E59" t="s">
+        <v>81</v>
+      </c>
+      <c r="G59" t="s">
         <v>82</v>
-      </c>
-      <c r="G59" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
+        <v>83</v>
+      </c>
+      <c r="G60" t="s">
         <v>84</v>
-      </c>
-      <c r="G60" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E61" t="s">
+        <v>85</v>
+      </c>
+      <c r="G61" t="s">
         <v>86</v>
-      </c>
-      <c r="G61" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Joom Application All SCenarios.xlsx
+++ b/src/main/resources/Joom Application All SCenarios.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="System test cases " sheetId="1" r:id="rId1"/>
+    <sheet name="Integration Test cases" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="134">
   <si>
     <t>Adding product to cart</t>
   </si>
@@ -481,6 +482,114 @@
   </si>
   <si>
     <t>click on "login" link</t>
+  </si>
+  <si>
+    <t>Add product to the wishlist</t>
+  </si>
+  <si>
+    <t>Verify that User1 should be able to see the visibility of added product to wish list</t>
+  </si>
+  <si>
+    <t>Click on login</t>
+  </si>
+  <si>
+    <t>Enter User1 Email address and password and click on login button</t>
+  </si>
+  <si>
+    <t>Click on home module</t>
+  </si>
+  <si>
+    <t>Home page should be displayed</t>
+  </si>
+  <si>
+    <t>Click on books subcategory module</t>
+  </si>
+  <si>
+    <t>Books subcategory module should be displayed</t>
+  </si>
+  <si>
+    <t>Click on wishlist icon of demobook</t>
+  </si>
+  <si>
+    <t>It should display wishlisted product in My wishlist page</t>
+  </si>
+  <si>
+    <t>Click on logout button</t>
+  </si>
+  <si>
+    <t>User1 should be redirected to homepage</t>
+  </si>
+  <si>
+    <t>Search by category name</t>
+  </si>
+  <si>
+    <t>Verify that user1 should be able to search by category name</t>
+  </si>
+  <si>
+    <t>Enter User1 Email address and password</t>
+  </si>
+  <si>
+    <t>Click on login button</t>
+  </si>
+  <si>
+    <t>Click on search button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should accept </t>
+  </si>
+  <si>
+    <t>enter valid category name</t>
+  </si>
+  <si>
+    <t>search: book</t>
+  </si>
+  <si>
+    <t>Expected product should be displayed</t>
+  </si>
+  <si>
+    <t>Click on ok button</t>
+  </si>
+  <si>
+    <t>user1 should be redirected to homepage</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Insert Product</t>
+  </si>
+  <si>
+    <t>Verify Admin is able to insert product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on Admin login </t>
+  </si>
+  <si>
+    <t>Enter the valid credentials like username and password and click on Login Button</t>
+  </si>
+  <si>
+    <t>username : admin password : admin</t>
+  </si>
+  <si>
+    <t>navigate to insert product link</t>
+  </si>
+  <si>
+    <t>enter all necessary details and click on insert button</t>
+  </si>
+  <si>
+    <t>Admin Home Page Should be displayed</t>
+  </si>
+  <si>
+    <t>Insert product page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page inserted successfully should be displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> click on search button and search for entered product and click on enter</t>
+  </si>
+  <si>
+    <t>product should be displayed successfully</t>
   </si>
 </sst>
 </file>
@@ -874,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1381,4 +1490,271 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/Joom Application All SCenarios.xlsx
+++ b/src/main/resources/Joom Application All SCenarios.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="System test cases " sheetId="1" r:id="rId1"/>
     <sheet name="Integration Test cases" sheetId="2" r:id="rId2"/>
+    <sheet name="Smoke test cases1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="153">
   <si>
     <t>Adding product to cart</t>
   </si>
@@ -590,6 +591,63 @@
   </si>
   <si>
     <t>product should be displayed successfully</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Update Order Status</t>
+  </si>
+  <si>
+    <t>Verify that admin can update order status</t>
+  </si>
+  <si>
+    <t>Log in as admin</t>
+  </si>
+  <si>
+    <t>Admin page should be displayed</t>
+  </si>
+  <si>
+    <t>Open an order</t>
+  </si>
+  <si>
+    <t>Order ID: 67</t>
+  </si>
+  <si>
+    <t>Order page should be displayed with particular order</t>
+  </si>
+  <si>
+    <t>Change status to Shipped</t>
+  </si>
+  <si>
+    <t>Click Save.</t>
+  </si>
+  <si>
+    <t>Order status should be updated</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>Order Details View</t>
+  </si>
+  <si>
+    <t>Verify that the order details can be viewed</t>
+  </si>
+  <si>
+    <t>Log in to the admin page</t>
+  </si>
+  <si>
+    <t>Select an order from the Order Management</t>
+  </si>
+  <si>
+    <t>Order Management page should be displayed along with order</t>
+  </si>
+  <si>
+    <t>Click on the View button to see order details</t>
+  </si>
+  <si>
+    <t>The order details should be displayed correctly with items, prices, and status</t>
   </si>
 </sst>
 </file>
@@ -1496,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1757,4 +1815,131 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>